--- a/DOC/MOUSER-450001XXXXxlsx_breakout.xlsx
+++ b/DOC/MOUSER-450001XXXXxlsx_breakout.xlsx
@@ -399,7 +399,7 @@
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="#,##0.00\ [$€-40C];[RED]\-#,##0.00\ [$€-40C]"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -434,6 +434,7 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -460,12 +461,6 @@
       <color rgb="FFF10D0C"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFF10D0C"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -473,13 +468,6 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -615,11 +603,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -631,23 +619,23 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -671,15 +659,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -869,7 +857,7 @@
   <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
